--- a/sequence_result.xlsx
+++ b/sequence_result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rt753149/Desktop/mRNA_sequencing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53E562EB-A79E-4D4D-9ED1-2628886D1310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D16BCC58-D3BE-B749-914A-FA82682D650F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -394,13 +394,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -422,8 +422,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -723,8 +723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CX21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AW1" zoomScale="142" workbookViewId="0">
-      <selection activeCell="CG4" sqref="CG4"/>
+    <sheetView tabSelected="1" zoomScale="66" workbookViewId="0">
+      <selection activeCell="BL39" sqref="BL39:BM39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1255,306 +1255,304 @@
       <c r="BV2" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="BW2" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="BX2" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="BY2" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="BZ2" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="CA2" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="CB2" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="CC2" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="CD2" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="CE2" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="CF2" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="CG2" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="CH2" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="CI2" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="CJ2" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="CK2" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="CL2" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="CM2" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="CN2" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="CO2" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="CP2" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="CQ2" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="CR2" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="CS2" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="CT2" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="CU2" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="CV2" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="CW2" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="CX2" s="5">
-        <v>31727.316999999999</v>
-      </c>
+      <c r="BW2" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="BX2" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="BY2" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="BZ2" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="CA2" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="CB2" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="CC2" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="CD2" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="CE2" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="CF2" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="CG2" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="CH2" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="CI2" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="CJ2" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="CK2" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="CL2" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="CM2" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="CN2" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="CO2" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="CP2" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="CQ2" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="CR2" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="CS2" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="CT2" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="CU2" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="CV2" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="CW2" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="CX2" s="4"/>
     </row>
     <row r="3" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>100</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="R3" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="S3" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="T3" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="U3" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="V3" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="W3" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="X3" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="Y3" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="Z3" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AA3" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="AB3" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AC3" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="AD3" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AE3" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="AF3" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="AG3" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="AH3" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="AI3" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="AJ3" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AK3" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="AL3" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="AM3" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="AN3" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="AO3" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="AP3" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AQ3" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AR3" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="AS3" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="AT3" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="AU3" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="AV3" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AW3" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="AX3" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="AY3" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AZ3" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="BA3" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="BB3" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="BC3" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="BD3" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="BE3" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="BF3" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="BG3" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="BH3" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="BI3" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="BJ3" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="BK3" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="BL3" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="BM3" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="BN3" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="BO3" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="BP3" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="BQ3" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="BR3" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="BS3" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="BT3" s="4" t="s">
+      <c r="B3" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="S3" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="U3" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="V3" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="W3" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="X3" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y3" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z3" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA3" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB3" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC3" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD3" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="AE3" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="AF3" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="AG3" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="AH3" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="AI3" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="AJ3" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="AK3" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="AL3" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="AM3" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="AN3" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="AO3" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="AP3" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="AQ3" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="AR3" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="AS3" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="AT3" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="AU3" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="AV3" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="AW3" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="AX3" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="AY3" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="AZ3" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="BA3" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="BB3" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="BC3" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="BD3" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="BE3" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="BF3" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="BG3" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="BH3" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="BI3" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="BJ3" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="BK3" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="BL3" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="BM3" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="BN3" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="BO3" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="BP3" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="BQ3" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="BR3" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="BS3" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="BT3" s="6" t="s">
         <v>101</v>
       </c>
       <c r="BU3" s="2" t="s">
@@ -1877,312 +1875,310 @@
       <c r="BY4" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="BZ4" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="CA4" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="CB4" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="CC4" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="CD4" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="CE4" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="CF4" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="CG4" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="CH4" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="CI4" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="CJ4" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="CK4" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="CL4" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="CM4" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="CN4" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="CO4" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="CP4" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="CQ4" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="CR4" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="CS4" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="CT4" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="CU4" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="CV4" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="CW4" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="CX4" s="5">
-        <v>32085.149000000001</v>
-      </c>
+      <c r="BZ4" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="CA4" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="CB4" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="CC4" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="CD4" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="CE4" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="CF4" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="CG4" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="CH4" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="CI4" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="CJ4" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="CK4" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="CL4" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="CM4" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="CN4" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="CO4" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="CP4" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="CQ4" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="CR4" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="CS4" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="CT4" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="CU4" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="CV4" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="CW4" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="CX4" s="4"/>
     </row>
     <row r="5" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>300</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="N5" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="O5" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="P5" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q5" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="R5" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="S5" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="T5" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="U5" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="V5" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="W5" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="X5" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="Y5" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="Z5" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="AA5" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="AB5" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="AC5" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="AD5" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="AE5" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="AF5" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="AG5" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="AH5" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="AI5" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="AJ5" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="AK5" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="AL5" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="AM5" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="AN5" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="AO5" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="AP5" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="AQ5" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="AR5" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="AS5" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="AT5" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="AU5" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="AV5" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="AW5" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="AX5" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="AY5" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="AZ5" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="BA5" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="BB5" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="BC5" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="BD5" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="BE5" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="BF5" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="BG5" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="BH5" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="BI5" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="BJ5" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="BK5" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="BL5" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="BM5" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="BN5" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="BO5" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="BP5" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="BQ5" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="BR5" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="BS5" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="BT5" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="BU5" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="BV5" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="BW5" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="BX5" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="BY5" s="6" t="s">
+      <c r="B5" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="S5" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="T5" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="U5" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="V5" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="W5" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="X5" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y5" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z5" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA5" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB5" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC5" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD5" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="AE5" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="AF5" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="AG5" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="AH5" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="AI5" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="AJ5" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="AK5" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="AL5" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="AM5" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="AN5" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="AO5" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="AP5" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="AQ5" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="AR5" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="AS5" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="AT5" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="AU5" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="AV5" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="AW5" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="AX5" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="AY5" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="AZ5" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="BA5" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="BB5" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="BC5" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="BD5" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="BE5" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="BF5" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="BG5" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="BH5" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="BI5" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="BJ5" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="BK5" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="BL5" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="BM5" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="BN5" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="BO5" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="BP5" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="BQ5" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="BR5" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="BS5" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="BT5" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="BU5" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="BV5" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="BW5" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="BX5" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="BY5" s="5" t="s">
         <v>100</v>
       </c>
       <c r="BZ5" s="2" t="s">
@@ -2750,121 +2746,121 @@
       <c r="BJ7" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="BK7" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="BL7" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="BM7" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="BN7" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="BO7" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="BP7" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="BQ7" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="BR7" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="BS7" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="BT7" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="BU7" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="BV7" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="BW7" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="BX7" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="BY7" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="BZ7" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="CA7" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="CB7" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="CC7" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="CD7" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="CE7" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="CF7" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="CG7" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="CH7" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="CI7" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="CJ7" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="CK7" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="CL7" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="CM7" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="CN7" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="CO7" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="CP7" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="CQ7" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="CR7" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="CS7" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="CT7" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="CU7" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="CV7" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="CW7" s="2" t="s">
+      <c r="BK7" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="BL7" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="BM7" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="BN7" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="BO7" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="BP7" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="BQ7" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="BR7" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="BS7" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="BT7" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="BU7" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="BV7" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="BW7" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="BX7" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="BY7" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="BZ7" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="CA7" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="CB7" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="CC7" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="CD7" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="CE7" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="CF7" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="CG7" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="CH7" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="CI7" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="CJ7" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="CK7" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="CL7" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="CM7" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="CN7" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="CO7" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="CP7" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="CQ7" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="CR7" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="CS7" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="CT7" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="CU7" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="CV7" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="CW7" s="5" t="s">
         <v>102</v>
       </c>
     </row>
@@ -3512,259 +3508,259 @@
       <c r="K10" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="L10" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="O10" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="P10" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q10" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="R10" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="S10" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="T10" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="U10" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="V10" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="W10" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="X10" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="Y10" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="Z10" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="AA10" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="AB10" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="AC10" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="AD10" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE10" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="AF10" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="AG10" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="AH10" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="AI10" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="AJ10" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="AK10" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="AL10" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="AM10" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="AN10" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="AO10" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="AP10" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="AQ10" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="AR10" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="AS10" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="AT10" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="AU10" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="AV10" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="AW10" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="AX10" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="AY10" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="AZ10" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="BA10" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="BB10" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="BC10" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="BD10" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="BE10" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="BF10" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="BG10" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="BH10" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="BI10" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="BJ10" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="BK10" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="BL10" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="BM10" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="BN10" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="BO10" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="BP10" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="BQ10" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="BR10" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="BS10" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="BT10" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="BU10" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="BV10" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="BW10" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="BX10" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="BY10" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="BZ10" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="CA10" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="CB10" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="CC10" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="CD10" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="CE10" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="CF10" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="CG10" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="CH10" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="CI10" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="CJ10" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="CK10" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="CL10" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="CM10" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="CN10" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="CO10" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="CP10" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="CQ10" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="CR10" s="2" t="s">
+      <c r="L10" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="S10" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="T10" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="U10" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="V10" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="W10" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="X10" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y10" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z10" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA10" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB10" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC10" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD10" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE10" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="AF10" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="AG10" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="AH10" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="AI10" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="AJ10" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="AK10" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="AL10" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="AM10" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="AN10" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="AO10" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="AP10" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="AQ10" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="AR10" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="AS10" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="AT10" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="AU10" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="AV10" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="AW10" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="AX10" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="AY10" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="AZ10" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="BA10" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="BB10" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="BC10" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="BD10" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="BE10" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="BF10" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="BG10" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="BH10" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="BI10" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="BJ10" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="BK10" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="BL10" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="BM10" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="BN10" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="BO10" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="BP10" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="BQ10" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="BR10" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="BS10" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="BT10" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="BU10" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="BV10" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="BW10" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="BX10" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="BY10" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="BZ10" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="CA10" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="CB10" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="CC10" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="CD10" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="CE10" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="CF10" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="CG10" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="CH10" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="CI10" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="CJ10" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="CK10" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="CL10" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="CM10" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="CN10" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="CO10" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="CP10" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="CQ10" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="CR10" s="5" t="s">
         <v>102</v>
       </c>
       <c r="CS10" s="1" t="s">
